--- a/Cleaning/Comparación modelos.xlsx
+++ b/Cleaning/Comparación modelos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimea\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimea\Desktop\Data_Desafio\Data_Desafio\Cleaning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B9E835B-A3BB-438D-8996-F47B7D8083F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E7FCBD-60A6-4071-A72B-822178F2BBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4726D42C-DA41-402D-9AA6-3195E02B531B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>COMPARACIÓN DE MODELOS</t>
   </si>
@@ -77,13 +77,31 @@
     <t>En el algoritmo de K-means, se busca minimizar la inercia y maximizar el coeficiente de silueta para obtener una mejor calidad de los clusters. Sin embargo, es importante tener en cuenta que la interpretación de estos valores puede depender del contexto y de los datos específicos.
 Una menor inercia indica que los puntos dentro de cada cluster están más cercanos entre sí y más alejados de los puntos de otros clusters. Esto sugiere una mejor separación y agrupación de los datos. Por lo tanto, una inercia más baja se considera deseable.
 Por otro lado, un coeficiente de silueta más alto indica una mejor separación de los clusters. Un valor cercano a 1 indica que los puntos están bien agrupados dentro de su cluster y están lejos de los puntos de otros clusters. Por lo tanto, un coeficiente de silueta más alto se considera deseable.</t>
+  </si>
+  <si>
+    <t>PCA = 7</t>
+  </si>
+  <si>
+    <t>PCA = 6</t>
+  </si>
+  <si>
+    <t>PCA = 5</t>
+  </si>
+  <si>
+    <t>PCA = 4</t>
+  </si>
+  <si>
+    <t>PCA = 3</t>
+  </si>
+  <si>
+    <t>PCA = 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +145,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -146,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -430,41 +456,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -482,9 +508,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -496,32 +519,55 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -540,6 +586,182 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>807720</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Flecha: a la derecha 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{424EA242-4B68-6E29-9016-2B8310ED5FA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipV="1">
+          <a:off x="4655820" y="3002280"/>
+          <a:ext cx="472440" cy="472440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>147002</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>643100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D008DB5-9658-5E71-64BF-98EE96B3E1B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3528060" y="4200842"/>
+          <a:ext cx="4102580" cy="3297238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1120140</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectángulo 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98F34089-16E8-638B-60B6-EC2D6CEE22B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4259580" y="2385060"/>
+          <a:ext cx="1333500" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -839,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B492CF78-C431-4FB0-BBC9-6BCBFDE84CBA}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -852,268 +1074,538 @@
     <col min="3" max="3" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E2" s="21" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
-      <c r="J3" s="26"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="26"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16"/>
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="26"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="29"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
-    </row>
-    <row r="6" spans="1:10" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="29"/>
+    </row>
+    <row r="6" spans="1:13" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="16"/>
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>0.17599999999999999</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="29"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>4653</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="26"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="29"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="16"/>
+      <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>0.19</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="29"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="2">
         <v>4114</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="26"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="29"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="16"/>
+      <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="4">
         <v>0.2</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="26"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="29"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>3998</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="29"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="4">
         <v>0.2</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="29"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="11">
         <v>3761</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="26"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="29"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="12">
         <v>0.21</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="26"/>
-    </row>
-    <row r="15" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="29"/>
+    </row>
+    <row r="15" spans="1:13" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="19"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="26"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="26"/>
-    </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E17" s="24"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
-    </row>
-    <row r="18" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E18" s="27"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="13"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="29"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="32"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="20">
+        <v>3121</v>
+      </c>
+      <c r="C20" s="21">
+        <v>2822</v>
+      </c>
+      <c r="D20" s="21">
+        <v>2456</v>
+      </c>
+      <c r="E20" s="21">
+        <v>2020</v>
+      </c>
+      <c r="F20" s="21">
+        <v>1516</v>
+      </c>
+      <c r="G20" s="21">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="21">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="C21" s="21">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="D21" s="21">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E21" s="21">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="F21" s="21">
+        <v>0.38</v>
+      </c>
+      <c r="G21" s="21">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="23"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="23"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="23"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="23"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="23"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="23"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="23"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="23"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="23"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="23"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="23"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="23"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E2:J18"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F3:M16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>